--- a/Project Outputs for ZYNQ7010_AD9363/ZYNQ7010_AD9363.xlsx
+++ b/Project Outputs for ZYNQ7010_AD9363/ZYNQ7010_AD9363.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13991\Desktop\ZYNQ7010_AD9363\Project Outputs for ZYNQ7010_AD9363\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E403DBA1-7E6D-4426-97FE-D59A3ACF4C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23DF4E-69AB-479B-83B0-72A4CC9CAFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{EF286437-0AD3-473E-A922-E028C32E7E3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF286437-0AD3-473E-A922-E028C32E7E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZYNQ7010_AD9363" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
   <si>
     <t>Comment</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Inductance</t>
   </si>
   <si>
-    <t>L1, L2, L3, L4, L6</t>
-  </si>
-  <si>
     <t>L1008</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>R14</t>
   </si>
   <si>
-    <t>56.2</t>
-  </si>
-  <si>
     <t>R16</t>
   </si>
   <si>
@@ -591,31 +585,64 @@
     <t>XTAL-2</t>
   </si>
   <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
+  </si>
+  <si>
+    <t>XTAL-4</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>40MHz</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>AP3419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR911130C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCM811TE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R21, R22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.2K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXS02612RTWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS7A8101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS2051BDBVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>33.333MHz</t>
-  </si>
-  <si>
-    <t>Oscillator</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>OSC-SMD_4P-L3.2-W2.5-BL</t>
-  </si>
-  <si>
-    <t>XTAL-4</t>
-  </si>
-  <si>
-    <t>24M</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>40MHz</t>
-  </si>
-  <si>
-    <t>X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -639,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,10 +725,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1050,9 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:F65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1446,13 +1481,13 @@
         <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
@@ -1460,19 +1495,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
@@ -1480,17 +1515,17 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1498,19 +1533,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1518,19 +1553,19 @@
     </row>
     <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1538,19 +1573,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
@@ -1558,19 +1593,19 @@
     </row>
     <row r="28" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F28" s="4">
         <v>17</v>
@@ -1578,19 +1613,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
@@ -1598,19 +1633,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1618,19 +1653,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
@@ -1638,19 +1673,19 @@
     </row>
     <row r="32" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F32" s="4">
         <v>12</v>
@@ -1658,19 +1693,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1678,19 +1713,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1698,19 +1733,19 @@
     </row>
     <row r="35" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="4">
         <v>9</v>
@@ -1718,19 +1753,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
@@ -1738,19 +1773,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -1758,19 +1793,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -1778,19 +1813,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1798,19 +1833,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F40" s="4">
         <v>2</v>
@@ -1818,19 +1853,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -1838,19 +1873,19 @@
     </row>
     <row r="42" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F42" s="4">
         <v>5</v>
@@ -1858,19 +1893,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
@@ -1878,19 +1913,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
@@ -1898,19 +1933,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -1918,19 +1953,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F46" s="4">
         <v>2</v>
@@ -1938,19 +1973,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
@@ -1958,19 +1993,19 @@
     </row>
     <row r="48" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="4">
         <v>10</v>
@@ -1978,19 +2013,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -1998,19 +2033,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F50" s="4">
         <v>2</v>
@@ -2018,19 +2053,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2038,19 +2073,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
@@ -2058,19 +2093,19 @@
     </row>
     <row r="53" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="E53" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
@@ -2078,19 +2113,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F54" s="4">
         <v>3</v>
@@ -2098,19 +2133,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E55" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
@@ -2118,17 +2153,17 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2136,17 +2171,17 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2154,17 +2189,17 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -2172,17 +2207,17 @@
     </row>
     <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2190,17 +2225,17 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -2208,17 +2243,17 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2226,17 +2261,17 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2244,19 +2279,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F63" s="4">
         <v>4</v>
@@ -2264,19 +2299,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F64" s="4">
         <v>2</v>
@@ -2284,17 +2319,17 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2302,19 +2337,19 @@
     </row>
     <row r="66" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2322,17 +2357,17 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -2340,17 +2375,17 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -2358,19 +2393,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -2378,19 +2413,19 @@
     </row>
     <row r="70" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -2398,19 +2433,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="E71" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -2418,19 +2453,19 @@
     </row>
     <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
